--- a/BackTest/2020-01-24 BackTest LINK.xlsx
+++ b/BackTest/2020-01-24 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6433.57338777741</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6458.74788777741</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6319.15978777741</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4341.77108777741</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6817.735087777411</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5871.996987777411</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5888.091287777411</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5052.15588777741</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5556.746187777411</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5569.830687777411</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5169.830687777411</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5168.830687777411</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5292.220987777411</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6838.63151222259</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5205.253512222589</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5179.157612222589</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5180.157612222589</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6668.848612222589</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>6496.182012222589</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>4699.639512222589</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3762.639512222589</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3710.432412222589</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3710.432412222589</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3639.46621222259</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2474.563412222589</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2475.063412222589</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2458.963412222589</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2038.508712222589</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-909.1709877774108</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-909.1709877774108</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-909.1709877774108</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2409.170987777411</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2480.477187777411</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2480.477187777411</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1913.200687777411</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1913.200687777411</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1813.116387777411</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2764.081987777411</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2764.081987777411</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-235.7144877774113</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>578.3835122225887</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>593.0736122225887</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>368.9842122225887</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>368.9842122225887</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>236.7977122225888</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-273.7765877774112</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-612.3967877774112</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1266.548487777411</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2191.989987777411</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2767.035287777411</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4267.515287777411</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3418.995787777411</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3418.995787777411</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3418.995787777411</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4918.99578777741</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-5118.33658777741</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5118.33658777741</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6355.668987777411</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6600.69798777741</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6600.09798777741</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6898.36778777741</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-6898.36778777741</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6898.36778777741</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-11185.01548777741</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-10588.53148777741</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-9090.29008777741</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-8998.28128777741</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-9123.82228777741</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-9326.924987777409</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-9326.924987777409</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-9319.125987777408</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-9319.125987777408</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-9319.125987777408</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-9319.125987777408</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-9875.692287777409</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8329.886187777409</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8329.886187777409</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-8329.886187777409</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8161.559387777409</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-9273.995587777408</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-9244.043487777408</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-8577.014953512851</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-8577.014953512851</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-8577.014953512851</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-8583.21055351285</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-9412.769153512851</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-9890.115853512851</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-10286.46885351285</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10286.46885351285</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-10228.45345351285</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10324.75175351285</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11853.59825351285</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-13994.36055351285</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-13166.34765351285</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-13176.34765351285</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-13499.79325351285</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-13499.79325351285</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-13499.53545351285</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-13706.34589261085</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-14170.68099261085</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-14537.73229261085</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-15662.93969261085</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-15662.93969261085</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-15946.97269261085</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-15308.1858280728</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-15308.8055280728</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-15308.8055280728</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-17990.7412280728</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-17710.2256280728</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-18033.9148280728</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-18032.8602280728</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-18368.3523280728</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-27345.1893280728</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-27345.1893280728</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-27269.1354280728</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-27242.5382280728</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-33927.1491280728</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-33904.3336280728</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-33267.98902807281</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-33542.98902807281</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-37211.8995280728</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-36183.8587280728</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-36011.4095280728</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-36019.0970280728</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-35871.5099280728</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-37389.3732280728</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-37510.5264280728</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-38340.0941280728</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-38046.1208280728</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-38046.1208280728</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-49931.7986280728</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-54561.3857280728</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-53737.7099280728</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-54441.9686280728</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-71008.08622466025</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-73174.17612466025</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-73149.16862466025</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-73149.16862466025</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-73061.72872466025</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-73361.72872466025</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-72663.43696698274</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-72771.04786698274</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-72897.36606698274</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-74237.26586698274</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-74237.26586698274</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-75298.50046698273</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-86251.95516698273</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-86426.24306698273</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12760,10 +12760,14 @@
         <v>-86929.42606698275</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2817</v>
+      </c>
+      <c r="J375" t="n">
+        <v>2817</v>
+      </c>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
@@ -12793,11 +12797,19 @@
         <v>-86928.88596698275</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2818</v>
+      </c>
+      <c r="J376" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +12838,19 @@
         <v>-91521.55026698275</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2829</v>
+      </c>
+      <c r="J377" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +12882,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +12918,19 @@
         <v>-90558.28892361523</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2827</v>
+      </c>
+      <c r="J379" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +12959,19 @@
         <v>-90293.46414485417</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2815</v>
+      </c>
+      <c r="J380" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13003,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13039,19 @@
         <v>-90504.42980857097</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2818</v>
+      </c>
+      <c r="J382" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13080,19 @@
         <v>-90372.25720857097</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2825</v>
+      </c>
+      <c r="J383" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13121,19 @@
         <v>-90962.08460857096</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2839</v>
+      </c>
+      <c r="J384" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13162,19 @@
         <v>-90929.88530857097</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2837</v>
+      </c>
+      <c r="J385" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13206,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13245,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13284,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +13323,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +13362,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +13401,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13324,8 +13440,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13357,8 +13479,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13390,8 +13518,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13423,8 +13557,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13456,8 +13596,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13632,19 @@
         <v>-96123.70214616276</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2823</v>
+      </c>
+      <c r="J397" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13522,8 +13676,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13712,19 @@
         <v>-96804.12834616276</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2807</v>
+      </c>
+      <c r="J399" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13753,19 @@
         <v>-95918.98644616276</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2815</v>
+      </c>
+      <c r="J400" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13621,8 +13797,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13654,8 +13836,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13872,19 @@
         <v>-95954.08644616276</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2817</v>
+      </c>
+      <c r="J403" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13913,19 @@
         <v>-92929.79514616277</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2817</v>
+      </c>
+      <c r="J404" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13954,19 @@
         <v>-93053.06934616277</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2819</v>
+      </c>
+      <c r="J405" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13995,19 @@
         <v>-92754.37744616276</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2818</v>
+      </c>
+      <c r="J406" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14036,19 @@
         <v>-92886.30824616276</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2826</v>
+      </c>
+      <c r="J407" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13852,8 +14080,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13885,8 +14119,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13918,8 +14158,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13951,8 +14197,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13984,8 +14236,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14272,19 @@
         <v>-97500.98724616277</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2815</v>
+      </c>
+      <c r="J413" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14050,8 +14316,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14352,19 @@
         <v>-97500.98724616277</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2815</v>
+      </c>
+      <c r="J415" t="n">
+        <v>2817</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,15 +14393,15 @@
         <v>-100765.1683461628</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>2815</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2817</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L416" t="n">
@@ -14152,12 +14432,12 @@
         <v>-100166.8175461628</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>2800</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2817</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14194,7 +14474,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2817</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14231,7 +14513,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2817</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14268,7 +14552,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2817</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14305,7 +14591,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2817</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14339,10 +14627,14 @@
         <v>-101576.4863461628</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>2815</v>
+      </c>
+      <c r="J422" t="n">
+        <v>2817</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14376,12 +14668,14 @@
         <v>-101576.4863461628</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>2821</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2817</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14415,12 +14709,14 @@
         <v>-101876.4863461628</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>2821</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2817</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14454,12 +14750,14 @@
         <v>-101861.1286715793</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>2812</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2817</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14493,12 +14791,14 @@
         <v>-102120.6955715793</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>2821</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2817</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14532,12 +14832,14 @@
         <v>-102696.9926715793</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>2819</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2817</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14571,12 +14873,14 @@
         <v>-102387.8679715793</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>2818</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2817</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14610,12 +14914,14 @@
         <v>-102973.4997715793</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>2822</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2817</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14649,12 +14955,14 @@
         <v>-103032.4997715793</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>2818</v>
       </c>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2817</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14688,12 +14996,14 @@
         <v>-103032.4997715793</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>2817</v>
       </c>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2817</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14727,12 +15037,14 @@
         <v>-103030.4140715793</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>2817</v>
       </c>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2817</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14766,12 +15078,14 @@
         <v>-103360.9665715793</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>2825</v>
       </c>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2817</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14805,12 +15119,14 @@
         <v>-103360.1674715793</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>2824</v>
       </c>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2817</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14844,12 +15160,14 @@
         <v>-101772.9051715793</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>2825</v>
       </c>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2817</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14883,12 +15201,14 @@
         <v>-101367.9165715793</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>2828</v>
       </c>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2817</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14922,12 +15242,14 @@
         <v>-100658.9501715793</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>2829</v>
       </c>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2817</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14961,10 +15283,14 @@
         <v>-100702.2476715793</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2835</v>
+      </c>
+      <c r="J438" t="n">
+        <v>2817</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14998,12 +15324,14 @@
         <v>-100690.3211715793</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>2826</v>
       </c>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2817</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15037,10 +15365,14 @@
         <v>-100636.2641715793</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J440" t="n">
+        <v>2817</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15074,10 +15406,14 @@
         <v>-100636.2641715793</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>2836</v>
+      </c>
+      <c r="J441" t="n">
+        <v>2817</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15111,10 +15447,14 @@
         <v>-100738.8981715793</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>2836</v>
+      </c>
+      <c r="J442" t="n">
+        <v>2817</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15148,10 +15488,14 @@
         <v>-100739.0981715793</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J443" t="n">
+        <v>2817</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15188,7 +15532,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2817</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15225,7 +15571,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2817</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15262,7 +15610,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2817</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15299,7 +15649,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2817</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15336,7 +15688,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2817</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15373,7 +15727,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2817</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15410,7 +15766,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2817</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15447,7 +15805,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2817</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15484,7 +15844,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2817</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15518,10 +15880,14 @@
         <v>-101856.3188715793</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>2832</v>
+      </c>
+      <c r="J453" t="n">
+        <v>2817</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15558,7 +15924,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2817</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15595,7 +15963,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2817</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15632,7 +16002,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2817</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15669,7 +16041,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2817</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15703,12 +16077,12 @@
         <v>-101855.8484715793</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="n">
-        <v>2831</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2817</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15742,12 +16116,14 @@
         <v>-101855.8484715793</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>2833</v>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2817</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15781,10 +16157,14 @@
         <v>-101057.3041715793</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2833</v>
+      </c>
+      <c r="J460" t="n">
+        <v>2817</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15818,12 +16198,14 @@
         <v>-101057.3041715793</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>2855</v>
       </c>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2817</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15860,7 +16242,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2817</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15897,7 +16281,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2817</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15934,7 +16320,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2817</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15971,7 +16359,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2817</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16008,7 +16398,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2817</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16045,7 +16437,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2817</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16082,7 +16476,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2817</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16119,7 +16515,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2817</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16156,7 +16554,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2817</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16193,7 +16593,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2817</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16230,7 +16632,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2817</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16264,10 +16668,14 @@
         <v>-100799.4961902091</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2851</v>
+      </c>
+      <c r="J473" t="n">
+        <v>2817</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16301,10 +16709,14 @@
         <v>-101048.1310902091</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2860</v>
+      </c>
+      <c r="J474" t="n">
+        <v>2817</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16341,7 +16753,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2817</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16375,10 +16789,14 @@
         <v>-101632.1602902091</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2847</v>
+      </c>
+      <c r="J476" t="n">
+        <v>2817</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16412,10 +16830,14 @@
         <v>-101932.1602902091</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2843</v>
+      </c>
+      <c r="J477" t="n">
+        <v>2817</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16449,10 +16871,14 @@
         <v>-102012.1602902091</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>2837</v>
+      </c>
+      <c r="J478" t="n">
+        <v>2817</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16486,10 +16912,14 @@
         <v>-102350.7010902091</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>2835</v>
+      </c>
+      <c r="J479" t="n">
+        <v>2817</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16523,10 +16953,14 @@
         <v>-105885.9702902091</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2832</v>
+      </c>
+      <c r="J480" t="n">
+        <v>2817</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16560,10 +16994,14 @@
         <v>-107455.4140902091</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2830</v>
+      </c>
+      <c r="J481" t="n">
+        <v>2817</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16600,7 +17038,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2817</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16634,10 +17074,14 @@
         <v>-107423.4140902091</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J483" t="n">
+        <v>2817</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16671,10 +17115,14 @@
         <v>-107423.4140902091</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2822</v>
+      </c>
+      <c r="J484" t="n">
+        <v>2817</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16708,10 +17156,14 @@
         <v>-107433.8410902091</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2822</v>
+      </c>
+      <c r="J485" t="n">
+        <v>2817</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16745,10 +17197,14 @@
         <v>-108336.0377902091</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J486" t="n">
+        <v>2817</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16782,12 +17238,14 @@
         <v>-108157.9377902091</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>2818</v>
       </c>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2817</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16821,12 +17279,14 @@
         <v>-108345.0377902091</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I488" t="n">
         <v>2825</v>
       </c>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2817</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16860,12 +17320,14 @@
         <v>-108345.0377902091</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>2813</v>
       </c>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2817</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16899,12 +17361,14 @@
         <v>-107890.1900902091</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>2813</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2817</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16938,12 +17402,14 @@
         <v>-107942.5557902091</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>2829</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2817</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16977,12 +17443,14 @@
         <v>-108103.0850902091</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>2822</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2817</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17016,12 +17484,14 @@
         <v>-109025.1687902091</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>2812</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2817</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17055,12 +17525,14 @@
         <v>-109025.1687902091</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>2807</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2817</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17094,12 +17566,14 @@
         <v>-108314.4138902091</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>2807</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2817</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17133,12 +17607,14 @@
         <v>-108414.4138902091</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>2819</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2817</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17172,12 +17648,14 @@
         <v>-108169.9323902091</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I497" t="n">
         <v>2811</v>
       </c>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2817</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17211,12 +17689,14 @@
         <v>-108269.9323902091</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>2820</v>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2817</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17250,12 +17730,14 @@
         <v>-108269.9323902091</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>2811</v>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2817</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17267,6 +17749,6 @@
       <c r="M499" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest LINK.xlsx
+++ b/BackTest/2020-01-24 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,7 +946,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6817.735087777411</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5871.996987777411</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5888.091287777411</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5052.15588777741</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5556.746187777411</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5569.830687777411</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5169.830687777411</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5168.830687777411</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5292.220987777411</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6838.63151222259</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5205.253512222589</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>5179.157612222589</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>5180.157612222589</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6668.848612222589</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>4699.639512222589</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>3762.639512222589</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>3710.432412222589</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>3710.432412222589</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>3639.46621222259</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2474.563412222589</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2475.063412222589</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2038.508712222589</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-909.1709877774108</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-909.1709877774108</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-909.1709877774108</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-2409.170987777411</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-2480.477187777411</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-2480.477187777411</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1913.200687777411</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1913.200687777411</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1813.116387777411</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-2764.081987777411</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2764.081987777411</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-235.7144877774113</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>578.3835122225887</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>593.0736122225887</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>368.9842122225887</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>368.9842122225887</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>367.9884122225887</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>236.7977122225888</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-273.7765877774112</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-612.3967877774112</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1266.548487777411</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-2191.989987777411</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-2767.035287777411</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4267.515287777411</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3418.995787777411</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3418.995787777411</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3418.995787777411</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4918.99578777741</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-5118.33658777741</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5118.33658777741</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-6355.668987777411</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-6600.69798777741</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-6600.09798777741</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-6898.36778777741</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-6898.36778777741</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-6898.36778777741</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-11185.01548777741</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-10588.53148777741</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-9090.29008777741</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-8998.28128777741</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-9123.82228777741</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-9326.924987777409</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-9326.924987777409</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-9319.125987777408</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-8329.886187777409</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-8329.886187777409</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-8329.886187777409</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-8161.559387777409</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-9244.043487777408</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-8577.014953512851</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-8577.014953512851</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-8577.014953512851</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-8583.21055351285</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-9412.769153512851</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-9890.115853512851</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-10286.46885351285</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-10286.46885351285</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-10228.45345351285</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-10324.75175351285</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-11853.59825351285</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-13994.36055351285</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-13166.34765351285</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-13176.34765351285</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-13499.79325351285</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-13499.79325351285</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-13499.53545351285</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-13706.34589261085</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-14170.68099261085</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-14537.73229261085</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-15662.93969261085</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-15662.93969261085</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-15946.97269261085</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-15308.1858280728</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-15308.8055280728</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-15308.8055280728</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-16695.3958280728</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-17990.7412280728</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-17710.2256280728</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-18033.9148280728</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-18032.8602280728</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-18368.3523280728</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-59536.62922466025</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-58488.35632466024</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-58628.33152466024</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-58578.39462466024</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-58916.64342466024</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-58660.94232466025</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-58574.94232466025</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-66116.51152466025</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-65938.12612466025</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-66266.99362466024</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-66284.38992466024</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-66390.99052466024</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-66389.99052466024</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-68040.89232466025</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-68497.67452466025</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-69776.28002466026</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12760,14 +12760,10 @@
         <v>-86929.42606698275</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>2817</v>
-      </c>
-      <c r="J375" t="n">
-        <v>2817</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
@@ -12797,4419 +12793,3661 @@
         <v>-86928.88596698275</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C377" t="n">
+        <v>2813</v>
+      </c>
+      <c r="D377" t="n">
+        <v>2828</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2813</v>
+      </c>
+      <c r="F377" t="n">
+        <v>4592.6643</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-91521.55026698275</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2813</v>
+      </c>
+      <c r="C378" t="n">
+        <v>2827</v>
+      </c>
+      <c r="D378" t="n">
+        <v>2827</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2813</v>
+      </c>
+      <c r="F378" t="n">
+        <v>1034.056243367527</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-90487.49402361523</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2826</v>
+      </c>
+      <c r="C379" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D379" t="n">
+        <v>2826</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F379" t="n">
+        <v>70.7949</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-90558.28892361523</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C380" t="n">
+        <v>2825</v>
+      </c>
+      <c r="D380" t="n">
+        <v>2825</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2825</v>
+      </c>
+      <c r="F380" t="n">
+        <v>264.824778761062</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-90293.46414485417</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C381" t="n">
         <v>2818</v>
       </c>
-      <c r="J376" t="n">
+      <c r="D381" t="n">
+        <v>2825</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F381" t="n">
+        <v>220.9656637168142</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-90514.42980857097</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C382" t="n">
+        <v>2825</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2825</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2825</v>
+      </c>
+      <c r="F382" t="n">
+        <v>10</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-90504.42980857097</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C383" t="n">
+        <v>2839</v>
+      </c>
+      <c r="D383" t="n">
+        <v>2839</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F383" t="n">
+        <v>132.1726</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-90372.25720857097</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C384" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D384" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F384" t="n">
+        <v>589.8274</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-90962.08460857096</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>2839</v>
+      </c>
+      <c r="C385" t="n">
+        <v>2839</v>
+      </c>
+      <c r="D385" t="n">
+        <v>2839</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2839</v>
+      </c>
+      <c r="F385" t="n">
+        <v>32.1993</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-90929.88530857097</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C386" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D386" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F386" t="n">
+        <v>28.8946</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-90958.77990857097</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C387" t="n">
+        <v>2840</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2840</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2840</v>
+      </c>
+      <c r="F387" t="n">
+        <v>1656.4969</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-89302.28300857097</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C388" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2827</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1638.246785512866</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-90940.52979408384</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C389" t="n">
+        <v>2824</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2824</v>
+      </c>
+      <c r="F389" t="n">
+        <v>207.099</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-91147.62879408384</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C390" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D390" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2836</v>
+      </c>
+      <c r="F390" t="n">
+        <v>34.3621</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-91113.26669408384</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C391" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F391" t="n">
+        <v>34.2362</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-91113.26669408384</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C392" t="n">
+        <v>2842</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2842</v>
+      </c>
+      <c r="E392" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F392" t="n">
+        <v>717.9456</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-90395.32109408383</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>2829</v>
+      </c>
+      <c r="C393" t="n">
+        <v>2828</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2829</v>
+      </c>
+      <c r="E393" t="n">
+        <v>2828</v>
+      </c>
+      <c r="F393" t="n">
+        <v>125.0063</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-90520.32739408383</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C394" t="n">
+        <v>2838</v>
+      </c>
+      <c r="D394" t="n">
+        <v>2838</v>
+      </c>
+      <c r="E394" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F394" t="n">
+        <v>204.1090479210712</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-90316.21834616276</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>2826</v>
+      </c>
+      <c r="C395" t="n">
+        <v>2826</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2827</v>
+      </c>
+      <c r="E395" t="n">
+        <v>2826</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1923.9705</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-92240.18884616275</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2823</v>
+      </c>
+      <c r="C396" t="n">
+        <v>2823</v>
+      </c>
+      <c r="D396" t="n">
+        <v>2823</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2823</v>
+      </c>
+      <c r="F396" t="n">
+        <v>1042.8126</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-93283.00144616276</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2819</v>
+      </c>
+      <c r="C397" t="n">
+        <v>2819</v>
+      </c>
+      <c r="D397" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E397" t="n">
         <v>2817</v>
       </c>
-      <c r="K376" t="inlineStr">
+      <c r="F397" t="n">
+        <v>2840.7007</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-96123.70214616276</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C398" t="n">
+        <v>2807</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2807</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1359.806</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-97483.50814616276</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C399" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2815</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F399" t="n">
+        <v>679.3798</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-96804.12834616276</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C400" t="n">
+        <v>2828</v>
+      </c>
+      <c r="D400" t="n">
+        <v>2828</v>
+      </c>
+      <c r="E400" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F400" t="n">
+        <v>885.1419</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-95918.98644616276</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2828</v>
+      </c>
+      <c r="C401" t="n">
+        <v>2828</v>
+      </c>
+      <c r="D401" t="n">
+        <v>2828</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2828</v>
+      </c>
+      <c r="F401" t="n">
+        <v>671.9019</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-95918.98644616276</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C402" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2817</v>
+      </c>
+      <c r="F402" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-95954.08644616276</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C403" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2817</v>
+      </c>
+      <c r="F403" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-95954.08644616276</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2819</v>
+      </c>
+      <c r="C404" t="n">
+        <v>2819</v>
+      </c>
+      <c r="D404" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2819</v>
+      </c>
+      <c r="F404" t="n">
+        <v>3024.2913</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-92929.79514616277</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C405" t="n">
+        <v>2818</v>
+      </c>
+      <c r="D405" t="n">
+        <v>2818</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F405" t="n">
+        <v>123.2742</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-93053.06934616277</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C406" t="n">
+        <v>2826</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2826</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2820</v>
+      </c>
+      <c r="F406" t="n">
+        <v>298.6919</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-92754.37744616276</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C407" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F407" t="n">
+        <v>131.9308</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-92886.30824616276</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C408" t="n">
+        <v>2820</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2820</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1285.6946</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-94172.00284616277</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2820</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2820</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2820</v>
+      </c>
+      <c r="F409" t="n">
+        <v>445.2514</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-94172.00284616277</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2817</v>
+      </c>
+      <c r="F410" t="n">
+        <v>1125</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-95297.00284616277</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D411" t="n">
+        <v>2822</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F411" t="n">
+        <v>2203.9844</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-97500.98724616277</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D412" t="n">
+        <v>2815</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F412" t="n">
+        <v>490.4649</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-97500.98724616277</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C413" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D413" t="n">
+        <v>2822</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F413" t="n">
+        <v>371.3665</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-97500.98724616277</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C414" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D414" t="n">
+        <v>2815</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F414" t="n">
+        <v>200.3619</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-97500.98724616277</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2819</v>
+      </c>
+      <c r="C415" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F415" t="n">
+        <v>142.2224</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-97500.98724616277</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C416" t="n">
+        <v>2800</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2815</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F416" t="n">
+        <v>3264.1811</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-100765.1683461628</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2810</v>
+      </c>
+      <c r="C417" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2811</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2810</v>
+      </c>
+      <c r="F417" t="n">
+        <v>598.3508</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-100166.8175461628</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2814</v>
+      </c>
+      <c r="C418" t="n">
+        <v>2809</v>
+      </c>
+      <c r="D418" t="n">
+        <v>2814</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2809</v>
+      </c>
+      <c r="F418" t="n">
+        <v>1871.0274</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-102037.8449461628</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2809</v>
+      </c>
+      <c r="C419" t="n">
+        <v>2813</v>
+      </c>
+      <c r="D419" t="n">
+        <v>2813</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2809</v>
+      </c>
+      <c r="F419" t="n">
+        <v>106.8415</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-101931.0034461628</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2813</v>
+      </c>
+      <c r="C420" t="n">
+        <v>2813</v>
+      </c>
+      <c r="D420" t="n">
+        <v>2813</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2813</v>
+      </c>
+      <c r="F420" t="n">
+        <v>109.1841</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-101931.0034461628</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C421" t="n">
+        <v>2815</v>
+      </c>
+      <c r="D421" t="n">
+        <v>2815</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F421" t="n">
+        <v>26.6495</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-101904.3539461628</v>
+      </c>
+      <c r="H421" t="n">
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C422" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2815</v>
+      </c>
+      <c r="F422" t="n">
+        <v>327.8676</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-101576.4863461628</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C423" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F423" t="n">
+        <v>23.7737</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-101576.4863461628</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2815</v>
+      </c>
+      <c r="C424" t="n">
+        <v>2812</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2815</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2812</v>
+      </c>
+      <c r="F424" t="n">
+        <v>300</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-101876.4863461628</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C425" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D425" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F425" t="n">
+        <v>15.35767458348104</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-101861.1286715793</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C426" t="n">
+        <v>2819</v>
+      </c>
+      <c r="D426" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F426" t="n">
+        <v>259.5669</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-102120.6955715793</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="n">
+        <v>1</v>
+      </c>
+      <c r="M426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>2819</v>
+      </c>
+      <c r="C427" t="n">
+        <v>2818</v>
+      </c>
+      <c r="D427" t="n">
+        <v>2819</v>
+      </c>
+      <c r="E427" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F427" t="n">
+        <v>576.2971</v>
+      </c>
+      <c r="G427" t="n">
+        <v>-102696.9926715793</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
+      <c r="M427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C428" t="n">
+        <v>2822</v>
+      </c>
+      <c r="D428" t="n">
+        <v>2822</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F428" t="n">
+        <v>309.1247</v>
+      </c>
+      <c r="G428" t="n">
+        <v>-102387.8679715793</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="n">
+        <v>1</v>
+      </c>
+      <c r="M428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>2818</v>
+      </c>
+      <c r="C429" t="n">
+        <v>2818</v>
+      </c>
+      <c r="D429" t="n">
+        <v>2818</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F429" t="n">
+        <v>585.6318</v>
+      </c>
+      <c r="G429" t="n">
+        <v>-102973.4997715793</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="n">
+        <v>1</v>
+      </c>
+      <c r="M429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C430" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D430" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2817</v>
+      </c>
+      <c r="F430" t="n">
+        <v>59</v>
+      </c>
+      <c r="G430" t="n">
+        <v>-103032.4997715793</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2817</v>
+      </c>
+      <c r="C431" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D431" t="n">
+        <v>2817</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2817</v>
+      </c>
+      <c r="F431" t="n">
+        <v>84.60899999999999</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-103032.4997715793</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C432" t="n">
+        <v>2825</v>
+      </c>
+      <c r="D432" t="n">
+        <v>2825</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2825</v>
+      </c>
+      <c r="F432" t="n">
+        <v>2.0857</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-103030.4140715793</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>2824</v>
+      </c>
+      <c r="C433" t="n">
+        <v>2824</v>
+      </c>
+      <c r="D433" t="n">
+        <v>2824</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2824</v>
+      </c>
+      <c r="F433" t="n">
+        <v>330.5525</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-103360.9665715793</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C434" t="n">
+        <v>2825</v>
+      </c>
+      <c r="D434" t="n">
+        <v>2825</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2825</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.7991</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-103360.1674715793</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>2828</v>
+      </c>
+      <c r="C435" t="n">
+        <v>2828</v>
+      </c>
+      <c r="D435" t="n">
+        <v>2828</v>
+      </c>
+      <c r="E435" t="n">
+        <v>2828</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1587.2623</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-101772.9051715793</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C436" t="n">
+        <v>2829</v>
+      </c>
+      <c r="D436" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E436" t="n">
+        <v>2820</v>
+      </c>
+      <c r="F436" t="n">
+        <v>404.9886</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-101367.9165715793</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>2829</v>
+      </c>
+      <c r="C437" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D437" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2829</v>
+      </c>
+      <c r="F437" t="n">
+        <v>708.9664</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-100658.9501715793</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>2826</v>
+      </c>
+      <c r="C438" t="n">
+        <v>2826</v>
+      </c>
+      <c r="D438" t="n">
+        <v>2826</v>
+      </c>
+      <c r="E438" t="n">
+        <v>2826</v>
+      </c>
+      <c r="F438" t="n">
+        <v>43.2975</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-100702.2476715793</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C439" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D439" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F439" t="n">
+        <v>11.9265</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-100690.3211715793</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C440" t="n">
+        <v>2836</v>
+      </c>
+      <c r="D440" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E440" t="n">
+        <v>2836</v>
+      </c>
+      <c r="F440" t="n">
+        <v>54.057</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-100636.2641715793</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C441" t="n">
+        <v>2836</v>
+      </c>
+      <c r="D441" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E441" t="n">
+        <v>2836</v>
+      </c>
+      <c r="F441" t="n">
+        <v>246.2153</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-100636.2641715793</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C442" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D442" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F442" t="n">
+        <v>102.634</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-100738.8981715793</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2824</v>
+      </c>
+      <c r="C443" t="n">
+        <v>2824</v>
+      </c>
+      <c r="D443" t="n">
+        <v>2824</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2824</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-100739.0981715793</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C444" t="n">
+        <v>2833</v>
+      </c>
+      <c r="D444" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F444" t="n">
+        <v>46.2869</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-100692.8112715793</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C445" t="n">
+        <v>2836</v>
+      </c>
+      <c r="D445" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2836</v>
+      </c>
+      <c r="F445" t="n">
+        <v>4.3537</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-100688.4575715793</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>2847</v>
+      </c>
+      <c r="C446" t="n">
+        <v>2848</v>
+      </c>
+      <c r="D446" t="n">
+        <v>2848</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2847</v>
+      </c>
+      <c r="F446" t="n">
+        <v>652.7764</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-100035.6811715793</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C447" t="n">
+        <v>2840</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2840</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2840</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-100035.8811715793</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C448" t="n">
+        <v>2838</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2840</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2838</v>
+      </c>
+      <c r="F448" t="n">
+        <v>652.7764</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-100688.6575715793</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>2847</v>
+      </c>
+      <c r="C449" t="n">
+        <v>2840</v>
+      </c>
+      <c r="D449" t="n">
+        <v>2847</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2840</v>
+      </c>
+      <c r="F449" t="n">
+        <v>526.8099</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-100161.8476715793</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>2838</v>
+      </c>
+      <c r="C450" t="n">
+        <v>2838</v>
+      </c>
+      <c r="D450" t="n">
+        <v>2838</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2838</v>
+      </c>
+      <c r="F450" t="n">
+        <v>774.7941</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-100936.6417715793</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C451" t="n">
+        <v>2834</v>
+      </c>
+      <c r="D451" t="n">
+        <v>2836</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2834</v>
+      </c>
+      <c r="F451" t="n">
+        <v>102.0939</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-101038.7356715793</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C452" t="n">
+        <v>2832</v>
+      </c>
+      <c r="D452" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2832</v>
+      </c>
+      <c r="F452" t="n">
+        <v>817.5832</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-101856.3188715793</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C453" t="n">
+        <v>2832</v>
+      </c>
+      <c r="D453" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2832</v>
+      </c>
+      <c r="F453" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-101856.3188715793</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C454" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D454" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E454" t="n">
+        <v>2832</v>
+      </c>
+      <c r="F454" t="n">
+        <v>461.8457</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-101394.4731715793</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C455" t="n">
+        <v>2831</v>
+      </c>
+      <c r="D455" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2831</v>
+      </c>
+      <c r="F455" t="n">
+        <v>632.8125</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-102027.2856715793</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>2831</v>
+      </c>
+      <c r="C456" t="n">
+        <v>2831</v>
+      </c>
+      <c r="D456" t="n">
+        <v>2831</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2831</v>
+      </c>
+      <c r="F456" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-102027.2856715793</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>2831</v>
+      </c>
+      <c r="C457" t="n">
+        <v>2831</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2831</v>
+      </c>
+      <c r="E457" t="n">
+        <v>2831</v>
+      </c>
+      <c r="F457" t="n">
+        <v>3.3628</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-102027.2856715793</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C458" t="n">
+        <v>2833</v>
+      </c>
+      <c r="D458" t="n">
+        <v>2834</v>
+      </c>
+      <c r="E458" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F458" t="n">
+        <v>171.4372</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-101855.8484715793</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>2833</v>
+      </c>
+      <c r="C459" t="n">
+        <v>2833</v>
+      </c>
+      <c r="D459" t="n">
+        <v>2833</v>
+      </c>
+      <c r="E459" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F459" t="n">
+        <v>219.1028</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-101855.8484715793</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>2838</v>
+      </c>
+      <c r="C460" t="n">
+        <v>2855</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2855</v>
+      </c>
+      <c r="E460" t="n">
+        <v>2838</v>
+      </c>
+      <c r="F460" t="n">
+        <v>798.5443</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-101057.3041715793</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>2855</v>
+      </c>
+      <c r="C461" t="n">
+        <v>2855</v>
+      </c>
+      <c r="D461" t="n">
+        <v>2855</v>
+      </c>
+      <c r="E461" t="n">
+        <v>2855</v>
+      </c>
+      <c r="F461" t="n">
+        <v>14.41611208406305</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-101057.3041715793</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>2854</v>
+      </c>
+      <c r="C462" t="n">
+        <v>2854</v>
+      </c>
+      <c r="D462" t="n">
+        <v>2854</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2854</v>
+      </c>
+      <c r="F462" t="n">
+        <v>4.4475</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-101061.7516715793</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>2852</v>
+      </c>
+      <c r="C463" t="n">
+        <v>2852</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2852</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2852</v>
+      </c>
+      <c r="F463" t="n">
+        <v>2.2308</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-101063.9824715793</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C464" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2850</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F464" t="n">
+        <v>2.2325</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-101066.2149715793</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>2841</v>
+      </c>
+      <c r="C465" t="n">
+        <v>2841</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2841</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2841</v>
+      </c>
+      <c r="F465" t="n">
+        <v>92.4735</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-101158.6884715793</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C466" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2850</v>
+      </c>
+      <c r="E466" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F466" t="n">
+        <v>101.913</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-101056.7754715793</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C467" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D467" t="n">
+        <v>2850</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F467" t="n">
+        <v>49.2588</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-101056.7754715793</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C468" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D468" t="n">
+        <v>2850</v>
+      </c>
+      <c r="E468" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F468" t="n">
+        <v>60.9412</v>
+      </c>
+      <c r="G468" t="n">
+        <v>-101056.7754715793</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C469" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D469" t="n">
+        <v>2850</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F469" t="n">
+        <v>8</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-101056.7754715793</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>2850</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D470" t="n">
+        <v>2850</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-101056.7754715793</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>2861</v>
+      </c>
+      <c r="C471" t="n">
+        <v>2861</v>
+      </c>
+      <c r="D471" t="n">
+        <v>2861</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2861</v>
+      </c>
+      <c r="F471" t="n">
+        <v>167.9000813701503</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-100888.8753902091</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>2851</v>
+      </c>
+      <c r="C472" t="n">
+        <v>2851</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2851</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2851</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-100889.1253902091</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>2860</v>
+      </c>
+      <c r="C473" t="n">
+        <v>2860</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2860</v>
+      </c>
+      <c r="E473" t="n">
+        <v>2860</v>
+      </c>
+      <c r="F473" t="n">
+        <v>89.6292</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-100799.4961902091</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>2852</v>
+      </c>
+      <c r="C474" t="n">
+        <v>2850</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2852</v>
+      </c>
+      <c r="E474" t="n">
+        <v>2850</v>
+      </c>
+      <c r="F474" t="n">
+        <v>248.6349</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-101048.1310902091</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>2847</v>
+      </c>
+      <c r="C475" t="n">
+        <v>2847</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2847</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2847</v>
+      </c>
+      <c r="F475" t="n">
+        <v>170</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-101218.1310902091</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>2846</v>
+      </c>
+      <c r="C476" t="n">
+        <v>2843</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2846</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2843</v>
+      </c>
+      <c r="F476" t="n">
+        <v>414.0292</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-101632.1602902091</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>2840</v>
+      </c>
+      <c r="C477" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2840</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F477" t="n">
+        <v>300</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-101932.1602902091</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C478" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2835</v>
+      </c>
+      <c r="F478" t="n">
+        <v>80</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-102012.1602902091</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C479" t="n">
+        <v>2832</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2832</v>
+      </c>
+      <c r="F479" t="n">
+        <v>338.5408</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-102350.7010902091</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F480" t="n">
+        <v>3535.2692</v>
+      </c>
+      <c r="G480" t="n">
+        <v>-105885.9702902091</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1569.4438</v>
+      </c>
+      <c r="G481" t="n">
+        <v>-107455.4140902091</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C482" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E482" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F482" t="n">
+        <v>215.8379</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-107455.4140902091</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2822</v>
+      </c>
+      <c r="D483" t="n">
+        <v>2822</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2822</v>
+      </c>
+      <c r="F483" t="n">
+        <v>32</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-107423.4140902091</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C484" t="n">
+        <v>2822</v>
+      </c>
+      <c r="D484" t="n">
+        <v>2822</v>
+      </c>
+      <c r="E484" t="n">
+        <v>2822</v>
+      </c>
+      <c r="F484" t="n">
+        <v>20.529</v>
+      </c>
+      <c r="G484" t="n">
+        <v>-107423.4140902091</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2822</v>
+      </c>
+      <c r="J484" t="n">
+        <v>2822</v>
+      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C485" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D485" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E485" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F485" t="n">
+        <v>10.427</v>
+      </c>
+      <c r="G485" t="n">
+        <v>-107433.8410902091</v>
+      </c>
+      <c r="H485" t="n">
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2822</v>
+      </c>
+      <c r="J485" t="n">
+        <v>2822</v>
+      </c>
+      <c r="K485" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>2820</v>
-      </c>
-      <c r="C377" t="n">
-        <v>2813</v>
-      </c>
-      <c r="D377" t="n">
-        <v>2828</v>
-      </c>
-      <c r="E377" t="n">
-        <v>2813</v>
-      </c>
-      <c r="F377" t="n">
-        <v>4592.6643</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-91521.55026698275</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>2829</v>
-      </c>
-      <c r="J377" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K377" t="inlineStr">
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C486" t="n">
+        <v>2818</v>
+      </c>
+      <c r="D486" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E486" t="n">
+        <v>2818</v>
+      </c>
+      <c r="F486" t="n">
+        <v>902.1967</v>
+      </c>
+      <c r="G486" t="n">
+        <v>-108336.0377902091</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J486" t="n">
+        <v>2822</v>
+      </c>
+      <c r="K486" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>2813</v>
-      </c>
-      <c r="C378" t="n">
-        <v>2827</v>
-      </c>
-      <c r="D378" t="n">
-        <v>2827</v>
-      </c>
-      <c r="E378" t="n">
-        <v>2813</v>
-      </c>
-      <c r="F378" t="n">
-        <v>1034.056243367527</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-90487.49402361523</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>2826</v>
-      </c>
-      <c r="C379" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D379" t="n">
-        <v>2826</v>
-      </c>
-      <c r="E379" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F379" t="n">
-        <v>70.7949</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-90558.28892361523</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>2827</v>
-      </c>
-      <c r="J379" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>2825</v>
-      </c>
-      <c r="C380" t="n">
-        <v>2825</v>
-      </c>
-      <c r="D380" t="n">
-        <v>2825</v>
-      </c>
-      <c r="E380" t="n">
-        <v>2825</v>
-      </c>
-      <c r="F380" t="n">
-        <v>264.824778761062</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-90293.46414485417</v>
-      </c>
-      <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>2815</v>
-      </c>
-      <c r="J380" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>2825</v>
-      </c>
-      <c r="C381" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D381" t="n">
-        <v>2825</v>
-      </c>
-      <c r="E381" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F381" t="n">
-        <v>220.9656637168142</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-90514.42980857097</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>2825</v>
-      </c>
-      <c r="C382" t="n">
-        <v>2825</v>
-      </c>
-      <c r="D382" t="n">
-        <v>2825</v>
-      </c>
-      <c r="E382" t="n">
-        <v>2825</v>
-      </c>
-      <c r="F382" t="n">
-        <v>10</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-90504.42980857097</v>
-      </c>
-      <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>2818</v>
-      </c>
-      <c r="J382" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C383" t="n">
-        <v>2839</v>
-      </c>
-      <c r="D383" t="n">
-        <v>2839</v>
-      </c>
-      <c r="E383" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F383" t="n">
-        <v>132.1726</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-90372.25720857097</v>
-      </c>
-      <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>2825</v>
-      </c>
-      <c r="J383" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C384" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D384" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E384" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F384" t="n">
-        <v>589.8274</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-90962.08460857096</v>
-      </c>
-      <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>2839</v>
-      </c>
-      <c r="J384" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>2839</v>
-      </c>
-      <c r="C385" t="n">
-        <v>2839</v>
-      </c>
-      <c r="D385" t="n">
-        <v>2839</v>
-      </c>
-      <c r="E385" t="n">
-        <v>2839</v>
-      </c>
-      <c r="F385" t="n">
-        <v>32.1993</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-90929.88530857097</v>
-      </c>
-      <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>2837</v>
-      </c>
-      <c r="J385" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C386" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D386" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E386" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F386" t="n">
-        <v>28.8946</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-90958.77990857097</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>2840</v>
-      </c>
-      <c r="C387" t="n">
-        <v>2840</v>
-      </c>
-      <c r="D387" t="n">
-        <v>2840</v>
-      </c>
-      <c r="E387" t="n">
-        <v>2840</v>
-      </c>
-      <c r="F387" t="n">
-        <v>1656.4969</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-89302.28300857097</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C388" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D388" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E388" t="n">
-        <v>2827</v>
-      </c>
-      <c r="F388" t="n">
-        <v>1638.246785512866</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-90940.52979408384</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C389" t="n">
-        <v>2824</v>
-      </c>
-      <c r="D389" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E389" t="n">
-        <v>2824</v>
-      </c>
-      <c r="F389" t="n">
-        <v>207.099</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-91147.62879408384</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>2836</v>
-      </c>
-      <c r="C390" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D390" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E390" t="n">
-        <v>2836</v>
-      </c>
-      <c r="F390" t="n">
-        <v>34.3621</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-91113.26669408384</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C391" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D391" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E391" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F391" t="n">
-        <v>34.2362</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-91113.26669408384</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>2830</v>
-      </c>
-      <c r="C392" t="n">
-        <v>2842</v>
-      </c>
-      <c r="D392" t="n">
-        <v>2842</v>
-      </c>
-      <c r="E392" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F392" t="n">
-        <v>717.9456</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-90395.32109408383</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>2829</v>
-      </c>
-      <c r="C393" t="n">
-        <v>2828</v>
-      </c>
-      <c r="D393" t="n">
-        <v>2829</v>
-      </c>
-      <c r="E393" t="n">
-        <v>2828</v>
-      </c>
-      <c r="F393" t="n">
-        <v>125.0063</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-90520.32739408383</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C394" t="n">
-        <v>2838</v>
-      </c>
-      <c r="D394" t="n">
-        <v>2838</v>
-      </c>
-      <c r="E394" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F394" t="n">
-        <v>204.1090479210712</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-90316.21834616276</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>2826</v>
-      </c>
-      <c r="C395" t="n">
-        <v>2826</v>
-      </c>
-      <c r="D395" t="n">
-        <v>2827</v>
-      </c>
-      <c r="E395" t="n">
-        <v>2826</v>
-      </c>
-      <c r="F395" t="n">
-        <v>1923.9705</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-92240.18884616275</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>2823</v>
-      </c>
-      <c r="C396" t="n">
-        <v>2823</v>
-      </c>
-      <c r="D396" t="n">
-        <v>2823</v>
-      </c>
-      <c r="E396" t="n">
-        <v>2823</v>
-      </c>
-      <c r="F396" t="n">
-        <v>1042.8126</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-93283.00144616276</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>2819</v>
-      </c>
-      <c r="C397" t="n">
-        <v>2819</v>
-      </c>
-      <c r="D397" t="n">
-        <v>2819</v>
-      </c>
-      <c r="E397" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F397" t="n">
-        <v>2840.7007</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-96123.70214616276</v>
-      </c>
-      <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>2823</v>
-      </c>
-      <c r="J397" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C398" t="n">
-        <v>2807</v>
-      </c>
-      <c r="D398" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E398" t="n">
-        <v>2807</v>
-      </c>
-      <c r="F398" t="n">
-        <v>1359.806</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-97483.50814616276</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C399" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D399" t="n">
-        <v>2815</v>
-      </c>
-      <c r="E399" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F399" t="n">
-        <v>679.3798</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-96804.12834616276</v>
-      </c>
-      <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>2807</v>
-      </c>
-      <c r="J399" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C400" t="n">
-        <v>2828</v>
-      </c>
-      <c r="D400" t="n">
-        <v>2828</v>
-      </c>
-      <c r="E400" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F400" t="n">
-        <v>885.1419</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-95918.98644616276</v>
-      </c>
-      <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>2815</v>
-      </c>
-      <c r="J400" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>2828</v>
-      </c>
-      <c r="C401" t="n">
-        <v>2828</v>
-      </c>
-      <c r="D401" t="n">
-        <v>2828</v>
-      </c>
-      <c r="E401" t="n">
-        <v>2828</v>
-      </c>
-      <c r="F401" t="n">
-        <v>671.9019</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-95918.98644616276</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C402" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D402" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E402" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F402" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-95954.08644616276</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C403" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D403" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E403" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F403" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-95954.08644616276</v>
-      </c>
-      <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>2817</v>
-      </c>
-      <c r="J403" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>2819</v>
-      </c>
-      <c r="C404" t="n">
-        <v>2819</v>
-      </c>
-      <c r="D404" t="n">
-        <v>2819</v>
-      </c>
-      <c r="E404" t="n">
-        <v>2819</v>
-      </c>
-      <c r="F404" t="n">
-        <v>3024.2913</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-92929.79514616277</v>
-      </c>
-      <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>2817</v>
-      </c>
-      <c r="J404" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>2818</v>
-      </c>
-      <c r="C405" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D405" t="n">
-        <v>2818</v>
-      </c>
-      <c r="E405" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F405" t="n">
-        <v>123.2742</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-93053.06934616277</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>2819</v>
-      </c>
-      <c r="J405" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>2820</v>
-      </c>
-      <c r="C406" t="n">
-        <v>2826</v>
-      </c>
-      <c r="D406" t="n">
-        <v>2826</v>
-      </c>
-      <c r="E406" t="n">
-        <v>2820</v>
-      </c>
-      <c r="F406" t="n">
-        <v>298.6919</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-92754.37744616276</v>
-      </c>
-      <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>2818</v>
-      </c>
-      <c r="J406" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C407" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D407" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E407" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F407" t="n">
-        <v>131.9308</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-92886.30824616276</v>
-      </c>
-      <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>2826</v>
-      </c>
-      <c r="J407" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C408" t="n">
-        <v>2820</v>
-      </c>
-      <c r="D408" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E408" t="n">
-        <v>2820</v>
-      </c>
-      <c r="F408" t="n">
-        <v>1285.6946</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-94172.00284616277</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>2820</v>
-      </c>
-      <c r="C409" t="n">
-        <v>2820</v>
-      </c>
-      <c r="D409" t="n">
-        <v>2820</v>
-      </c>
-      <c r="E409" t="n">
-        <v>2820</v>
-      </c>
-      <c r="F409" t="n">
-        <v>445.2514</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-94172.00284616277</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C410" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D410" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E410" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F410" t="n">
-        <v>1125</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-95297.00284616277</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C411" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D411" t="n">
-        <v>2822</v>
-      </c>
-      <c r="E411" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F411" t="n">
-        <v>2203.9844</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-97500.98724616277</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C412" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D412" t="n">
-        <v>2815</v>
-      </c>
-      <c r="E412" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F412" t="n">
-        <v>490.4649</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-97500.98724616277</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>2822</v>
-      </c>
-      <c r="C413" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D413" t="n">
-        <v>2822</v>
-      </c>
-      <c r="E413" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F413" t="n">
-        <v>371.3665</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-97500.98724616277</v>
-      </c>
-      <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>2815</v>
-      </c>
-      <c r="J413" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C414" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D414" t="n">
-        <v>2815</v>
-      </c>
-      <c r="E414" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F414" t="n">
-        <v>200.3619</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-97500.98724616277</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>2819</v>
-      </c>
-      <c r="C415" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D415" t="n">
-        <v>2819</v>
-      </c>
-      <c r="E415" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F415" t="n">
-        <v>142.2224</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-97500.98724616277</v>
-      </c>
-      <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>2815</v>
-      </c>
-      <c r="J415" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C416" t="n">
-        <v>2800</v>
-      </c>
-      <c r="D416" t="n">
-        <v>2815</v>
-      </c>
-      <c r="E416" t="n">
-        <v>2800</v>
-      </c>
-      <c r="F416" t="n">
-        <v>3264.1811</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-100765.1683461628</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>2810</v>
-      </c>
-      <c r="C417" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D417" t="n">
-        <v>2811</v>
-      </c>
-      <c r="E417" t="n">
-        <v>2810</v>
-      </c>
-      <c r="F417" t="n">
-        <v>598.3508</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-100166.8175461628</v>
-      </c>
-      <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>2814</v>
-      </c>
-      <c r="C418" t="n">
-        <v>2809</v>
-      </c>
-      <c r="D418" t="n">
-        <v>2814</v>
-      </c>
-      <c r="E418" t="n">
-        <v>2809</v>
-      </c>
-      <c r="F418" t="n">
-        <v>1871.0274</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-102037.8449461628</v>
-      </c>
-      <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>2809</v>
-      </c>
-      <c r="C419" t="n">
-        <v>2813</v>
-      </c>
-      <c r="D419" t="n">
-        <v>2813</v>
-      </c>
-      <c r="E419" t="n">
-        <v>2809</v>
-      </c>
-      <c r="F419" t="n">
-        <v>106.8415</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-101931.0034461628</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>2813</v>
-      </c>
-      <c r="C420" t="n">
-        <v>2813</v>
-      </c>
-      <c r="D420" t="n">
-        <v>2813</v>
-      </c>
-      <c r="E420" t="n">
-        <v>2813</v>
-      </c>
-      <c r="F420" t="n">
-        <v>109.1841</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-101931.0034461628</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C421" t="n">
-        <v>2815</v>
-      </c>
-      <c r="D421" t="n">
-        <v>2815</v>
-      </c>
-      <c r="E421" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F421" t="n">
-        <v>26.6495</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-101904.3539461628</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C422" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D422" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E422" t="n">
-        <v>2815</v>
-      </c>
-      <c r="F422" t="n">
-        <v>327.8676</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-101576.4863461628</v>
-      </c>
-      <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>2815</v>
-      </c>
-      <c r="J422" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C423" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D423" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E423" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F423" t="n">
-        <v>23.7737</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-101576.4863461628</v>
-      </c>
-      <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>2821</v>
-      </c>
-      <c r="J423" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>2815</v>
-      </c>
-      <c r="C424" t="n">
-        <v>2812</v>
-      </c>
-      <c r="D424" t="n">
-        <v>2815</v>
-      </c>
-      <c r="E424" t="n">
-        <v>2812</v>
-      </c>
-      <c r="F424" t="n">
-        <v>300</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-101876.4863461628</v>
-      </c>
-      <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>2821</v>
-      </c>
-      <c r="J424" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C425" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D425" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E425" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F425" t="n">
-        <v>15.35767458348104</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-101861.1286715793</v>
-      </c>
-      <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>2812</v>
-      </c>
-      <c r="J425" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>2818</v>
-      </c>
-      <c r="C426" t="n">
-        <v>2819</v>
-      </c>
-      <c r="D426" t="n">
-        <v>2819</v>
-      </c>
-      <c r="E426" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F426" t="n">
-        <v>259.5669</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-102120.6955715793</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>2821</v>
-      </c>
-      <c r="J426" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>1</v>
-      </c>
-      <c r="M426" t="inlineStr"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>2819</v>
-      </c>
-      <c r="C427" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D427" t="n">
-        <v>2819</v>
-      </c>
-      <c r="E427" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F427" t="n">
-        <v>576.2971</v>
-      </c>
-      <c r="G427" t="n">
-        <v>-102696.9926715793</v>
-      </c>
-      <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>2819</v>
-      </c>
-      <c r="J427" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L427" t="n">
-        <v>1</v>
-      </c>
-      <c r="M427" t="inlineStr"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>2818</v>
-      </c>
-      <c r="C428" t="n">
-        <v>2822</v>
-      </c>
-      <c r="D428" t="n">
-        <v>2822</v>
-      </c>
-      <c r="E428" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F428" t="n">
-        <v>309.1247</v>
-      </c>
-      <c r="G428" t="n">
-        <v>-102387.8679715793</v>
-      </c>
-      <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>2818</v>
-      </c>
-      <c r="J428" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>1</v>
-      </c>
-      <c r="M428" t="inlineStr"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>2818</v>
-      </c>
-      <c r="C429" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D429" t="n">
-        <v>2818</v>
-      </c>
-      <c r="E429" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F429" t="n">
-        <v>585.6318</v>
-      </c>
-      <c r="G429" t="n">
-        <v>-102973.4997715793</v>
-      </c>
-      <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>2822</v>
-      </c>
-      <c r="J429" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L429" t="n">
-        <v>1</v>
-      </c>
-      <c r="M429" t="inlineStr"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C430" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D430" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E430" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F430" t="n">
-        <v>59</v>
-      </c>
-      <c r="G430" t="n">
-        <v>-103032.4997715793</v>
-      </c>
-      <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>2818</v>
-      </c>
-      <c r="J430" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>2817</v>
-      </c>
-      <c r="C431" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D431" t="n">
-        <v>2817</v>
-      </c>
-      <c r="E431" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F431" t="n">
-        <v>84.60899999999999</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-103032.4997715793</v>
-      </c>
-      <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>2817</v>
-      </c>
-      <c r="J431" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>2825</v>
-      </c>
-      <c r="C432" t="n">
-        <v>2825</v>
-      </c>
-      <c r="D432" t="n">
-        <v>2825</v>
-      </c>
-      <c r="E432" t="n">
-        <v>2825</v>
-      </c>
-      <c r="F432" t="n">
-        <v>2.0857</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-103030.4140715793</v>
-      </c>
-      <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>2817</v>
-      </c>
-      <c r="J432" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>2824</v>
-      </c>
-      <c r="C433" t="n">
-        <v>2824</v>
-      </c>
-      <c r="D433" t="n">
-        <v>2824</v>
-      </c>
-      <c r="E433" t="n">
-        <v>2824</v>
-      </c>
-      <c r="F433" t="n">
-        <v>330.5525</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-103360.9665715793</v>
-      </c>
-      <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>2825</v>
-      </c>
-      <c r="J433" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>2825</v>
-      </c>
-      <c r="C434" t="n">
-        <v>2825</v>
-      </c>
-      <c r="D434" t="n">
-        <v>2825</v>
-      </c>
-      <c r="E434" t="n">
-        <v>2825</v>
-      </c>
-      <c r="F434" t="n">
-        <v>0.7991</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-103360.1674715793</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>2824</v>
-      </c>
-      <c r="J434" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>2828</v>
-      </c>
-      <c r="C435" t="n">
-        <v>2828</v>
-      </c>
-      <c r="D435" t="n">
-        <v>2828</v>
-      </c>
-      <c r="E435" t="n">
-        <v>2828</v>
-      </c>
-      <c r="F435" t="n">
-        <v>1587.2623</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-101772.9051715793</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>2825</v>
-      </c>
-      <c r="J435" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C436" t="n">
-        <v>2829</v>
-      </c>
-      <c r="D436" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E436" t="n">
-        <v>2820</v>
-      </c>
-      <c r="F436" t="n">
-        <v>404.9886</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-101367.9165715793</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>2828</v>
-      </c>
-      <c r="J436" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>2829</v>
-      </c>
-      <c r="C437" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D437" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E437" t="n">
-        <v>2829</v>
-      </c>
-      <c r="F437" t="n">
-        <v>708.9664</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-100658.9501715793</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>2829</v>
-      </c>
-      <c r="J437" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>2826</v>
-      </c>
-      <c r="C438" t="n">
-        <v>2826</v>
-      </c>
-      <c r="D438" t="n">
-        <v>2826</v>
-      </c>
-      <c r="E438" t="n">
-        <v>2826</v>
-      </c>
-      <c r="F438" t="n">
-        <v>43.2975</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-100702.2476715793</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>2835</v>
-      </c>
-      <c r="J438" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>2830</v>
-      </c>
-      <c r="C439" t="n">
-        <v>2830</v>
-      </c>
-      <c r="D439" t="n">
-        <v>2830</v>
-      </c>
-      <c r="E439" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F439" t="n">
-        <v>11.9265</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-100690.3211715793</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>2826</v>
-      </c>
-      <c r="J439" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>2836</v>
-      </c>
-      <c r="C440" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D440" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E440" t="n">
-        <v>2836</v>
-      </c>
-      <c r="F440" t="n">
-        <v>54.057</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-100636.2641715793</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>2830</v>
-      </c>
-      <c r="J440" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>2836</v>
-      </c>
-      <c r="C441" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D441" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E441" t="n">
-        <v>2836</v>
-      </c>
-      <c r="F441" t="n">
-        <v>246.2153</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-100636.2641715793</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>2836</v>
-      </c>
-      <c r="J441" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>2830</v>
-      </c>
-      <c r="C442" t="n">
-        <v>2830</v>
-      </c>
-      <c r="D442" t="n">
-        <v>2830</v>
-      </c>
-      <c r="E442" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F442" t="n">
-        <v>102.634</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-100738.8981715793</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>2836</v>
-      </c>
-      <c r="J442" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>2824</v>
-      </c>
-      <c r="C443" t="n">
-        <v>2824</v>
-      </c>
-      <c r="D443" t="n">
-        <v>2824</v>
-      </c>
-      <c r="E443" t="n">
-        <v>2824</v>
-      </c>
-      <c r="F443" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-100739.0981715793</v>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>2830</v>
-      </c>
-      <c r="J443" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>2833</v>
-      </c>
-      <c r="C444" t="n">
-        <v>2833</v>
-      </c>
-      <c r="D444" t="n">
-        <v>2833</v>
-      </c>
-      <c r="E444" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F444" t="n">
-        <v>46.2869</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-100692.8112715793</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>2836</v>
-      </c>
-      <c r="C445" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D445" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E445" t="n">
-        <v>2836</v>
-      </c>
-      <c r="F445" t="n">
-        <v>4.3537</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-100688.4575715793</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>2847</v>
-      </c>
-      <c r="C446" t="n">
-        <v>2848</v>
-      </c>
-      <c r="D446" t="n">
-        <v>2848</v>
-      </c>
-      <c r="E446" t="n">
-        <v>2847</v>
-      </c>
-      <c r="F446" t="n">
-        <v>652.7764</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-100035.6811715793</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>2840</v>
-      </c>
-      <c r="C447" t="n">
-        <v>2840</v>
-      </c>
-      <c r="D447" t="n">
-        <v>2840</v>
-      </c>
-      <c r="E447" t="n">
-        <v>2840</v>
-      </c>
-      <c r="F447" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-100035.8811715793</v>
-      </c>
-      <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>2840</v>
-      </c>
-      <c r="C448" t="n">
-        <v>2838</v>
-      </c>
-      <c r="D448" t="n">
-        <v>2840</v>
-      </c>
-      <c r="E448" t="n">
-        <v>2838</v>
-      </c>
-      <c r="F448" t="n">
-        <v>652.7764</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-100688.6575715793</v>
-      </c>
-      <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>2847</v>
-      </c>
-      <c r="C449" t="n">
-        <v>2840</v>
-      </c>
-      <c r="D449" t="n">
-        <v>2847</v>
-      </c>
-      <c r="E449" t="n">
-        <v>2840</v>
-      </c>
-      <c r="F449" t="n">
-        <v>526.8099</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-100161.8476715793</v>
-      </c>
-      <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>2838</v>
-      </c>
-      <c r="C450" t="n">
-        <v>2838</v>
-      </c>
-      <c r="D450" t="n">
-        <v>2838</v>
-      </c>
-      <c r="E450" t="n">
-        <v>2838</v>
-      </c>
-      <c r="F450" t="n">
-        <v>774.7941</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-100936.6417715793</v>
-      </c>
-      <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>2836</v>
-      </c>
-      <c r="C451" t="n">
-        <v>2834</v>
-      </c>
-      <c r="D451" t="n">
-        <v>2836</v>
-      </c>
-      <c r="E451" t="n">
-        <v>2834</v>
-      </c>
-      <c r="F451" t="n">
-        <v>102.0939</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-101038.7356715793</v>
-      </c>
-      <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C452" t="n">
-        <v>2832</v>
-      </c>
-      <c r="D452" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E452" t="n">
-        <v>2832</v>
-      </c>
-      <c r="F452" t="n">
-        <v>817.5832</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-101856.3188715793</v>
-      </c>
-      <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C453" t="n">
-        <v>2832</v>
-      </c>
-      <c r="D453" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E453" t="n">
-        <v>2832</v>
-      </c>
-      <c r="F453" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-101856.3188715793</v>
-      </c>
-      <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>2832</v>
-      </c>
-      <c r="J453" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>2833</v>
-      </c>
-      <c r="C454" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D454" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E454" t="n">
-        <v>2832</v>
-      </c>
-      <c r="F454" t="n">
-        <v>461.8457</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-101394.4731715793</v>
-      </c>
-      <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>2835</v>
-      </c>
-      <c r="C455" t="n">
-        <v>2831</v>
-      </c>
-      <c r="D455" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E455" t="n">
-        <v>2831</v>
-      </c>
-      <c r="F455" t="n">
-        <v>632.8125</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-102027.2856715793</v>
-      </c>
-      <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>2831</v>
-      </c>
-      <c r="C456" t="n">
-        <v>2831</v>
-      </c>
-      <c r="D456" t="n">
-        <v>2831</v>
-      </c>
-      <c r="E456" t="n">
-        <v>2831</v>
-      </c>
-      <c r="F456" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-102027.2856715793</v>
-      </c>
-      <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>2831</v>
-      </c>
-      <c r="C457" t="n">
-        <v>2831</v>
-      </c>
-      <c r="D457" t="n">
-        <v>2831</v>
-      </c>
-      <c r="E457" t="n">
-        <v>2831</v>
-      </c>
-      <c r="F457" t="n">
-        <v>3.3628</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-102027.2856715793</v>
-      </c>
-      <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>2834</v>
-      </c>
-      <c r="C458" t="n">
-        <v>2833</v>
-      </c>
-      <c r="D458" t="n">
-        <v>2834</v>
-      </c>
-      <c r="E458" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F458" t="n">
-        <v>171.4372</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-101855.8484715793</v>
-      </c>
-      <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>2833</v>
-      </c>
-      <c r="C459" t="n">
-        <v>2833</v>
-      </c>
-      <c r="D459" t="n">
-        <v>2833</v>
-      </c>
-      <c r="E459" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F459" t="n">
-        <v>219.1028</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-101855.8484715793</v>
-      </c>
-      <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>2833</v>
-      </c>
-      <c r="J459" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>2838</v>
-      </c>
-      <c r="C460" t="n">
-        <v>2855</v>
-      </c>
-      <c r="D460" t="n">
-        <v>2855</v>
-      </c>
-      <c r="E460" t="n">
-        <v>2838</v>
-      </c>
-      <c r="F460" t="n">
-        <v>798.5443</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-101057.3041715793</v>
-      </c>
-      <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>2833</v>
-      </c>
-      <c r="J460" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>2855</v>
-      </c>
-      <c r="C461" t="n">
-        <v>2855</v>
-      </c>
-      <c r="D461" t="n">
-        <v>2855</v>
-      </c>
-      <c r="E461" t="n">
-        <v>2855</v>
-      </c>
-      <c r="F461" t="n">
-        <v>14.41611208406305</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-101057.3041715793</v>
-      </c>
-      <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>2855</v>
-      </c>
-      <c r="J461" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>2854</v>
-      </c>
-      <c r="C462" t="n">
-        <v>2854</v>
-      </c>
-      <c r="D462" t="n">
-        <v>2854</v>
-      </c>
-      <c r="E462" t="n">
-        <v>2854</v>
-      </c>
-      <c r="F462" t="n">
-        <v>4.4475</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-101061.7516715793</v>
-      </c>
-      <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>2852</v>
-      </c>
-      <c r="C463" t="n">
-        <v>2852</v>
-      </c>
-      <c r="D463" t="n">
-        <v>2852</v>
-      </c>
-      <c r="E463" t="n">
-        <v>2852</v>
-      </c>
-      <c r="F463" t="n">
-        <v>2.2308</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-101063.9824715793</v>
-      </c>
-      <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C464" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D464" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E464" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F464" t="n">
-        <v>2.2325</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-101066.2149715793</v>
-      </c>
-      <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>2841</v>
-      </c>
-      <c r="C465" t="n">
-        <v>2841</v>
-      </c>
-      <c r="D465" t="n">
-        <v>2841</v>
-      </c>
-      <c r="E465" t="n">
-        <v>2841</v>
-      </c>
-      <c r="F465" t="n">
-        <v>92.4735</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-101158.6884715793</v>
-      </c>
-      <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C466" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D466" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E466" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F466" t="n">
-        <v>101.913</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-101056.7754715793</v>
-      </c>
-      <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C467" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D467" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E467" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F467" t="n">
-        <v>49.2588</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-101056.7754715793</v>
-      </c>
-      <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C468" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D468" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E468" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F468" t="n">
-        <v>60.9412</v>
-      </c>
-      <c r="G468" t="n">
-        <v>-101056.7754715793</v>
-      </c>
-      <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C469" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D469" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E469" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F469" t="n">
-        <v>8</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-101056.7754715793</v>
-      </c>
-      <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>2850</v>
-      </c>
-      <c r="C470" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D470" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E470" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F470" t="n">
-        <v>0.0395</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-101056.7754715793</v>
-      </c>
-      <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>2861</v>
-      </c>
-      <c r="C471" t="n">
-        <v>2861</v>
-      </c>
-      <c r="D471" t="n">
-        <v>2861</v>
-      </c>
-      <c r="E471" t="n">
-        <v>2861</v>
-      </c>
-      <c r="F471" t="n">
-        <v>167.9000813701503</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-100888.8753902091</v>
-      </c>
-      <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>2851</v>
-      </c>
-      <c r="C472" t="n">
-        <v>2851</v>
-      </c>
-      <c r="D472" t="n">
-        <v>2851</v>
-      </c>
-      <c r="E472" t="n">
-        <v>2851</v>
-      </c>
-      <c r="F472" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-100889.1253902091</v>
-      </c>
-      <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>2860</v>
-      </c>
-      <c r="C473" t="n">
-        <v>2860</v>
-      </c>
-      <c r="D473" t="n">
-        <v>2860</v>
-      </c>
-      <c r="E473" t="n">
-        <v>2860</v>
-      </c>
-      <c r="F473" t="n">
-        <v>89.6292</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-100799.4961902091</v>
-      </c>
-      <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>2851</v>
-      </c>
-      <c r="J473" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>2852</v>
-      </c>
-      <c r="C474" t="n">
-        <v>2850</v>
-      </c>
-      <c r="D474" t="n">
-        <v>2852</v>
-      </c>
-      <c r="E474" t="n">
-        <v>2850</v>
-      </c>
-      <c r="F474" t="n">
-        <v>248.6349</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-101048.1310902091</v>
-      </c>
-      <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>2860</v>
-      </c>
-      <c r="J474" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>2847</v>
-      </c>
-      <c r="C475" t="n">
-        <v>2847</v>
-      </c>
-      <c r="D475" t="n">
-        <v>2847</v>
-      </c>
-      <c r="E475" t="n">
-        <v>2847</v>
-      </c>
-      <c r="F475" t="n">
-        <v>170</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-101218.1310902091</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>2846</v>
-      </c>
-      <c r="C476" t="n">
-        <v>2843</v>
-      </c>
-      <c r="D476" t="n">
-        <v>2846</v>
-      </c>
-      <c r="E476" t="n">
-        <v>2843</v>
-      </c>
-      <c r="F476" t="n">
-        <v>414.0292</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-101632.1602902091</v>
-      </c>
-      <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>2847</v>
-      </c>
-      <c r="J476" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>2840</v>
-      </c>
-      <c r="C477" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D477" t="n">
-        <v>2840</v>
-      </c>
-      <c r="E477" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F477" t="n">
-        <v>300</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-101932.1602902091</v>
-      </c>
-      <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>2843</v>
-      </c>
-      <c r="J477" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>2835</v>
-      </c>
-      <c r="C478" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D478" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E478" t="n">
-        <v>2835</v>
-      </c>
-      <c r="F478" t="n">
-        <v>80</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-102012.1602902091</v>
-      </c>
-      <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>2837</v>
-      </c>
-      <c r="J478" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C479" t="n">
-        <v>2832</v>
-      </c>
-      <c r="D479" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E479" t="n">
-        <v>2832</v>
-      </c>
-      <c r="F479" t="n">
-        <v>338.5408</v>
-      </c>
-      <c r="G479" t="n">
-        <v>-102350.7010902091</v>
-      </c>
-      <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>2835</v>
-      </c>
-      <c r="J479" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C480" t="n">
-        <v>2830</v>
-      </c>
-      <c r="D480" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E480" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F480" t="n">
-        <v>3535.2692</v>
-      </c>
-      <c r="G480" t="n">
-        <v>-105885.9702902091</v>
-      </c>
-      <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>2832</v>
-      </c>
-      <c r="J480" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>2830</v>
-      </c>
-      <c r="C481" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D481" t="n">
-        <v>2830</v>
-      </c>
-      <c r="E481" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F481" t="n">
-        <v>1569.4438</v>
-      </c>
-      <c r="G481" t="n">
-        <v>-107455.4140902091</v>
-      </c>
-      <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>2830</v>
-      </c>
-      <c r="J481" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C482" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D482" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E482" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F482" t="n">
-        <v>215.8379</v>
-      </c>
-      <c r="G482" t="n">
-        <v>-107455.4140902091</v>
-      </c>
-      <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>2822</v>
-      </c>
-      <c r="C483" t="n">
-        <v>2822</v>
-      </c>
-      <c r="D483" t="n">
-        <v>2822</v>
-      </c>
-      <c r="E483" t="n">
-        <v>2822</v>
-      </c>
-      <c r="F483" t="n">
-        <v>32</v>
-      </c>
-      <c r="G483" t="n">
-        <v>-107423.4140902091</v>
-      </c>
-      <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>2821</v>
-      </c>
-      <c r="J483" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>2822</v>
-      </c>
-      <c r="C484" t="n">
-        <v>2822</v>
-      </c>
-      <c r="D484" t="n">
-        <v>2822</v>
-      </c>
-      <c r="E484" t="n">
-        <v>2822</v>
-      </c>
-      <c r="F484" t="n">
-        <v>20.529</v>
-      </c>
-      <c r="G484" t="n">
-        <v>-107423.4140902091</v>
-      </c>
-      <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>2822</v>
-      </c>
-      <c r="J484" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C485" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D485" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E485" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F485" t="n">
-        <v>10.427</v>
-      </c>
-      <c r="G485" t="n">
-        <v>-107433.8410902091</v>
-      </c>
-      <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>2822</v>
-      </c>
-      <c r="J485" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C486" t="n">
-        <v>2818</v>
-      </c>
-      <c r="D486" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E486" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F486" t="n">
-        <v>902.1967</v>
-      </c>
-      <c r="G486" t="n">
-        <v>-108336.0377902091</v>
-      </c>
-      <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>2821</v>
-      </c>
-      <c r="J486" t="n">
-        <v>2817</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17244,7 +16482,7 @@
         <v>2818</v>
       </c>
       <c r="J487" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -17285,7 +16523,7 @@
         <v>2825</v>
       </c>
       <c r="J488" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -17326,7 +16564,7 @@
         <v>2813</v>
       </c>
       <c r="J489" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -17367,7 +16605,7 @@
         <v>2813</v>
       </c>
       <c r="J490" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -17408,7 +16646,7 @@
         <v>2829</v>
       </c>
       <c r="J491" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17449,7 +16687,7 @@
         <v>2822</v>
       </c>
       <c r="J492" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17490,7 +16728,7 @@
         <v>2812</v>
       </c>
       <c r="J493" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17531,7 +16769,7 @@
         <v>2807</v>
       </c>
       <c r="J494" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17572,7 +16810,7 @@
         <v>2807</v>
       </c>
       <c r="J495" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17613,7 +16851,7 @@
         <v>2819</v>
       </c>
       <c r="J496" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17654,7 +16892,7 @@
         <v>2811</v>
       </c>
       <c r="J497" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17695,7 +16933,7 @@
         <v>2820</v>
       </c>
       <c r="J498" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17736,7 +16974,7 @@
         <v>2811</v>
       </c>
       <c r="J499" t="n">
-        <v>2817</v>
+        <v>2822</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17749,6 +16987,6 @@
       <c r="M499" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest LINK.xlsx
+++ b/BackTest/2020-01-24 BackTest LINK.xlsx
@@ -451,7 +451,7 @@
         <v>-6433.57338777741</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-6458.74788777741</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-6319.15978777741</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4341.77108777741</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-4341.77108777741</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-4304.75998777741</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-4265.67378777741</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-6123.57898777741</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-6123.57898777741</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-6103.31758777741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6950.93508777741</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6817.735087777411</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-5871.996987777411</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-5888.091287777411</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-5888.45578777741</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-5052.15588777741</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-5077.255887777411</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-5556.746187777411</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5569.830687777411</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-5169.830687777411</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5168.830687777411</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-5292.220987777411</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>6838.63151222259</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6774.93421222259</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>6761.40141222259</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>6746.60141222259</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>6748.60141222259</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>6748.60141222259</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>6327.60141222259</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>6329.60141222259</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>6329.60141222259</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>6168.88101222259</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>6169.63841222259</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>5222.900312222589</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>5224.900312222589</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>5225.900312222589</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>5205.253512222589</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>5168.848612222589</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>6668.848612222589</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>6496.182012222589</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>6496.182012222589</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>6514.486512222589</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>6552.486512222589</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>6002.486612222589</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>6002.486612222589</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>4898.058412222589</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>5173.240112222589</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>5108.57661222259</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2038.508712222589</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>2055.207312222589</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>2055.207312222589</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1630.337212222589</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-16153.64369261085</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-59536.62922466025</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-58488.35632466024</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-58628.33152466024</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-58578.39462466024</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-58916.64342466024</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-59163.35652466024</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-58660.94232466025</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-58574.94232466025</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-58182.37882466025</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-66116.51152466025</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-65938.12612466025</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-66266.99362466024</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-66284.38992466024</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-66390.99052466024</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-66389.99052466024</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-68040.89232466025</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-68497.67452466025</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-69776.28002466026</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -14344,10 +14344,14 @@
         <v>-101576.4863461628</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J423" t="n">
+        <v>2821</v>
+      </c>
       <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
@@ -14377,11 +14381,19 @@
         <v>-101876.4863461628</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J424" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14422,19 @@
         <v>-101861.1286715793</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>2812</v>
+      </c>
+      <c r="J425" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14463,19 @@
         <v>-102120.6955715793</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2821</v>
+      </c>
+      <c r="J426" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14504,19 @@
         <v>-102696.9926715793</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>2819</v>
+      </c>
+      <c r="J427" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14545,19 @@
         <v>-102387.8679715793</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2818</v>
+      </c>
+      <c r="J428" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14545,8 +14589,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14578,8 +14628,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14608,11 +14664,19 @@
         <v>-103032.4997715793</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>2817</v>
+      </c>
+      <c r="J431" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14641,11 +14705,19 @@
         <v>-103030.4140715793</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>2817</v>
+      </c>
+      <c r="J432" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14674,11 +14746,19 @@
         <v>-103360.9665715793</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>2825</v>
+      </c>
+      <c r="J433" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14707,11 +14787,19 @@
         <v>-103360.1674715793</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2824</v>
+      </c>
+      <c r="J434" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14740,11 +14828,19 @@
         <v>-101772.9051715793</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2825</v>
+      </c>
+      <c r="J435" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14773,11 +14869,19 @@
         <v>-101367.9165715793</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2828</v>
+      </c>
+      <c r="J436" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14809,8 +14913,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14842,8 +14952,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +14991,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14908,8 +15030,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14941,8 +15069,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14974,8 +15108,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15007,8 +15147,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15040,8 +15186,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15073,8 +15225,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15106,8 +15264,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15139,8 +15303,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15172,8 +15342,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15205,8 +15381,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15238,8 +15420,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15271,8 +15459,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15304,8 +15498,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15337,8 +15537,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15370,8 +15576,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15403,8 +15615,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15436,8 +15654,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15469,8 +15693,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15502,8 +15732,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15535,8 +15771,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15568,8 +15810,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15601,8 +15849,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15634,8 +15888,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15667,8 +15927,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15700,8 +15966,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15733,8 +16005,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15766,8 +16044,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15799,8 +16083,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15832,8 +16122,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15865,8 +16161,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15898,8 +16200,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15931,8 +16239,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15964,8 +16278,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15997,8 +16317,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16030,8 +16356,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16063,8 +16395,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16096,8 +16434,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16129,8 +16473,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16162,8 +16512,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16195,8 +16551,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16228,8 +16590,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16261,8 +16629,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16294,8 +16668,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16327,8 +16707,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2821</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,15 +16743,17 @@
         <v>-107423.4140902091</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>2822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>2822</v>
-      </c>
-      <c r="K484" t="inlineStr"/>
+        <v>2821</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,17 +16782,15 @@
         <v>-107433.8410902091</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>2822</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L485" t="n">
@@ -16435,17 +16821,15 @@
         <v>-108336.0377902091</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="n">
         <v>2821</v>
-      </c>
-      <c r="J486" t="n">
-        <v>2822</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L486" t="n">
@@ -16482,7 +16866,7 @@
         <v>2818</v>
       </c>
       <c r="J487" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16523,7 +16907,7 @@
         <v>2825</v>
       </c>
       <c r="J488" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16564,7 +16948,7 @@
         <v>2813</v>
       </c>
       <c r="J489" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16605,7 +16989,7 @@
         <v>2813</v>
       </c>
       <c r="J490" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16646,7 +17030,7 @@
         <v>2829</v>
       </c>
       <c r="J491" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -16687,7 +17071,7 @@
         <v>2822</v>
       </c>
       <c r="J492" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -16728,7 +17112,7 @@
         <v>2812</v>
       </c>
       <c r="J493" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -16769,7 +17153,7 @@
         <v>2807</v>
       </c>
       <c r="J494" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -16810,7 +17194,7 @@
         <v>2807</v>
       </c>
       <c r="J495" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -16851,7 +17235,7 @@
         <v>2819</v>
       </c>
       <c r="J496" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -16892,7 +17276,7 @@
         <v>2811</v>
       </c>
       <c r="J497" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -16933,7 +17317,7 @@
         <v>2820</v>
       </c>
       <c r="J498" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -16974,7 +17358,7 @@
         <v>2811</v>
       </c>
       <c r="J499" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
